--- a/src/main/resources/HiredCandidates.xlsx
+++ b/src/main/resources/HiredCandidates.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\J4tesh\study_material\bridgeLabs\Felloship2020Jitesh\branch\JiteshFellowshipJUnitTesting\LearningManagementSystem\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\LMS_Application\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -144,12 +144,24 @@
   </si>
   <si>
     <t>pune</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -518,7 +530,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +647,7 @@
         <v>43953.425532407404</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -691,7 +703,7 @@
         <v>43953.425532407404</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -747,7 +759,7 @@
         <v>43953.425532407404</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -803,7 +815,7 @@
         <v>43953.425532407404</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
